--- a/biology/Botanique/Aria_(plante)/Aria_(plante).xlsx
+++ b/biology/Botanique/Aria_(plante)/Aria_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aria est un genre de plantes à fleurs de la famille des Rosaceae. Ce genre regroupe à l'origine les espèces du genre Sorbus à feuilles simples[2], communément nommées « Alisier » en français, le genre Sorbus au sens strict regroupant alors des espèces à feuilles composées, communément nommées « Sorbier ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aria est un genre de plantes à fleurs de la famille des Rosaceae. Ce genre regroupe à l'origine les espèces du genre Sorbus à feuilles simples, communément nommées « Alisier » en français, le genre Sorbus au sens strict regroupant alors des espèces à feuilles composées, communément nommées « Sorbier ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres et arbustes à feuilles simples plus ou moins tachetées de blanc en dessous, avec entre neuf et vingt paires de nervures latérales, entières ou basales avec quelques lobes indistincts, subaigus à obtus avec un nombre variable de dents. Les fleurs ont des pétales blancs à jaunâtres et deux ou trois styles. Les fruits (les alises) sont assez gros, de couleur rouge ou cramoisi ou orange, avec quelques lenticelles éparses de taille petite à moyenne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres et arbustes à feuilles simples plus ou moins tachetées de blanc en dessous, avec entre neuf et vingt paires de nervures latérales, entières ou basales avec quelques lobes indistincts, subaigus à obtus avec un nombre variable de dents. Les fleurs ont des pétales blancs à jaunâtres et deux ou trois styles. Les fruits (les alises) sont assez gros, de couleur rouge ou cramoisi ou orange, avec quelques lenticelles éparses de taille petite à moyenne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (21 septembre 2020)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (21 septembre 2020) :
 Aria arvonicola (P. D. Sell) Sennikov &amp; Kurtto
 Aria avonensis (T. C. G. Rich) Sennikov &amp; Kurtto
 Aria baldaccii (C. K. Schneid.) Sennikov &amp; Kurtto
@@ -599,7 +615,7 @@
 Aria whiteana (T. C. G. Rich &amp; L. Houston) Sennikov &amp; Kurtto
 Aria wilmottiana (E. F. Warb.) Sennikov &amp; Kurtto
 Aria zolyomii (Soó) Sennikov &amp; Kurtto
-Selon Tropicos                                           (21 septembre 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Aria alnifolia (Siebold &amp; Zucc.) Decne.
 Aria aronioides (Rehder) H. Ohashi &amp; H. Iketani
 Aria astateria (Cardot) H. Ohashi &amp; H. Iketani
@@ -634,7 +650,7 @@
 Aria yuarguta H. Ohashi &amp; H. Iketani
 Aria zahlbruckneri (C.K. Schneid.) H. Ohashi &amp; H. Iketani
 Aria ×thuringiaca (Nyman) Beck
-Selon la World Checklist of Vascular Plants (WCVP)                (21 septembre 2020)[1] :
+Selon la World Checklist of Vascular Plants (WCVP)                (21 septembre 2020) :
 Aria arvonicola (P.D.Sell) Sennikov &amp; Kurtto
 Aria avonensis (T.C.G.Rich) Sennikov &amp; Kurtto
 Aria baldaccii (C.K.Schneid.) Sennikov &amp; Kurtto
